--- a/Excel IF-AND-Sumifs Practice Sheet.xlsx
+++ b/Excel IF-AND-Sumifs Practice Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrut\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0F94EB-3698-40A7-ADB6-64AC0A5DC888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7E9EA2-73E2-4B0E-B711-C4586B386A60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,9 +203,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>If park &lt;= 1.5 hrs, no fee (message)</t>
-  </si>
-  <si>
     <t>In Extra comment column (column D) if beetle is long then Calculate how much longer than average and show in column D</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Desktop PC</t>
+  </si>
+  <si>
+    <t>If park &lt;= 1.5 hrs, Free Parking (message)</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -1136,10 +1136,7 @@
       <c r="B4" s="10">
         <v>0.5</v>
       </c>
-      <c r="C4" s="11" t="str">
-        <f t="shared" ref="C4:C10" si="0">IF(B4&lt;=Threshold,"Free parking",B4*Parking_fee)</f>
-        <v>Free parking</v>
-      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1148,10 +1145,7 @@
       <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1160,10 +1154,7 @@
       <c r="B6" s="10">
         <v>1.5</v>
       </c>
-      <c r="C6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Free parking</v>
-      </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1172,10 +1163,7 @@
       <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1184,10 +1172,7 @@
       <c r="B8" s="10">
         <v>5.5</v>
       </c>
-      <c r="C8" s="11">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1196,10 +1181,7 @@
       <c r="B9" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1208,17 +1190,14 @@
       <c r="B10" s="10">
         <v>0.5</v>
       </c>
-      <c r="C10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Free parking</v>
-      </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1251,7 +1230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F34841-7B39-4682-8BD0-B1ACDC907D43}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1370,7 +1351,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -1617,26 +1598,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1644,16 +1625,16 @@
         <v>45293</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D3" s="31">
         <v>5</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1661,28 +1642,28 @@
         <v>45296</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="31">
         <v>5</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>62</v>
-      </c>
       <c r="J4" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1690,25 +1671,25 @@
         <v>45307</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="31">
         <v>3</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>73</v>
-      </c>
       <c r="J5" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="34"/>
     </row>
@@ -1717,25 +1698,25 @@
         <v>45297</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="31">
         <v>8</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="34"/>
     </row>
@@ -1744,25 +1725,25 @@
         <v>45307</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="31">
         <v>1</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="34"/>
     </row>
@@ -1771,16 +1752,16 @@
         <v>45297</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="31">
         <v>1</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1788,16 +1769,16 @@
         <v>45321</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="31">
         <v>4</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1805,16 +1786,16 @@
         <v>45316</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="28"/>
     </row>
@@ -1823,16 +1804,16 @@
         <v>45310</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="D11" s="31">
         <v>6</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1840,16 +1821,16 @@
         <v>45299</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="31">
         <v>3</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1857,16 +1838,16 @@
         <v>45296</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="31">
         <v>6</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1874,16 +1855,16 @@
         <v>45297</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="31">
         <v>1</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1891,16 +1872,16 @@
         <v>45294</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="31">
         <v>13</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1908,16 +1889,16 @@
         <v>45306</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="31">
         <v>11</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1925,16 +1906,16 @@
         <v>45295</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="31">
         <v>12</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1942,16 +1923,16 @@
         <v>45311</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="31">
         <v>11</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1959,16 +1940,16 @@
         <v>45295</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D19" s="31">
         <v>7</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1976,16 +1957,16 @@
         <v>45293</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="31">
         <v>13</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,16 +1974,16 @@
         <v>45318</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="31">
         <v>4</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2010,16 +1991,16 @@
         <v>45294</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="31">
         <v>13</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2027,16 +2008,16 @@
         <v>45314</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="31">
         <v>4</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2044,16 +2025,16 @@
         <v>45319</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="31">
         <v>9</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2061,16 +2042,16 @@
         <v>45298</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="31">
         <v>2</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2078,16 +2059,16 @@
         <v>45319</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="31">
         <v>4</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2095,16 +2076,16 @@
         <v>45316</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="31">
         <v>3</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2112,16 +2093,16 @@
         <v>45317</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="31">
         <v>13</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2129,16 +2110,16 @@
         <v>45313</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="31">
         <v>6</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2146,16 +2127,16 @@
         <v>45300</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="31">
         <v>4</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2163,16 +2144,16 @@
         <v>45301</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="31">
         <v>9</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2180,16 +2161,16 @@
         <v>45312</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="31">
         <v>10</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2197,16 +2178,16 @@
         <v>45316</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="31">
         <v>10</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,16 +2195,16 @@
         <v>45321</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="D34" s="31">
         <v>4</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2231,16 +2212,16 @@
         <v>45320</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="31">
         <v>6</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2248,16 +2229,16 @@
         <v>45317</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="31">
         <v>10</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2265,16 +2246,16 @@
         <v>45302</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="D37" s="31">
         <v>3</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2282,16 +2263,16 @@
         <v>45314</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="D38" s="31">
         <v>10</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2299,16 +2280,16 @@
         <v>45319</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="31">
         <v>3</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2316,16 +2297,16 @@
         <v>45305</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="31">
         <v>6</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2333,16 +2314,16 @@
         <v>45305</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="31">
         <v>5</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2350,16 +2331,16 @@
         <v>45318</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="31">
         <v>4</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2367,16 +2348,16 @@
         <v>45293</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="31">
         <v>6</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2384,16 +2365,16 @@
         <v>45312</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="31">
         <v>4</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2401,16 +2382,16 @@
         <v>45294</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="31">
         <v>11</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2418,16 +2399,16 @@
         <v>45314</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="31">
         <v>2</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2435,16 +2416,16 @@
         <v>45306</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="31">
         <v>3</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2452,16 +2433,16 @@
         <v>45315</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="31">
         <v>6</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2469,16 +2450,16 @@
         <v>45306</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="31">
         <v>15</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2486,16 +2467,16 @@
         <v>45307</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="31">
         <v>13</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2503,16 +2484,16 @@
         <v>45311</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="31">
         <v>5</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2520,16 +2501,16 @@
         <v>45320</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="31">
         <v>14</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2537,16 +2518,16 @@
         <v>45321</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="31">
         <v>8</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2554,16 +2535,16 @@
         <v>45295</v>
       </c>
       <c r="B54" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D54" s="31">
         <v>11</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2571,16 +2552,16 @@
         <v>45292</v>
       </c>
       <c r="B55" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D55" s="31">
         <v>2</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2588,16 +2569,16 @@
         <v>45303</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="31">
         <v>4</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2605,16 +2586,16 @@
         <v>45305</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="31">
         <v>14</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2622,16 +2603,16 @@
         <v>45292</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="31">
         <v>6</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2639,16 +2620,16 @@
         <v>45317</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="31">
         <v>8</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2656,16 +2637,16 @@
         <v>45308</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="31">
         <v>15</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2673,16 +2654,16 @@
         <v>45298</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="31">
         <v>14</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2690,16 +2671,16 @@
         <v>45299</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="31">
         <v>13</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2707,16 +2688,16 @@
         <v>45302</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="31">
         <v>6</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2724,16 +2705,16 @@
         <v>45307</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="31">
         <v>7</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2741,16 +2722,16 @@
         <v>45304</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="31">
         <v>7</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2758,16 +2739,16 @@
         <v>45300</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="31">
         <v>2</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2775,16 +2756,16 @@
         <v>45320</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="31">
         <v>10</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2792,16 +2773,16 @@
         <v>45303</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="31">
         <v>4</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2809,16 +2790,16 @@
         <v>45305</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D69" s="31">
         <v>8</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,16 +2807,16 @@
         <v>45316</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" s="31">
         <v>14</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2843,16 +2824,16 @@
         <v>45312</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" s="31">
         <v>6</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2860,16 +2841,16 @@
         <v>45295</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="31">
         <v>6</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2877,16 +2858,16 @@
         <v>45309</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="31">
         <v>4</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,16 +2875,16 @@
         <v>45307</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="31">
         <v>3</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2911,16 +2892,16 @@
         <v>45306</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D75" s="31">
         <v>12</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2928,16 +2909,16 @@
         <v>45292</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="31">
         <v>7</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2945,16 +2926,16 @@
         <v>45292</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" s="31">
         <v>14</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2962,16 +2943,16 @@
         <v>45310</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="31">
         <v>12</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2979,16 +2960,16 @@
         <v>45319</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D79" s="31">
         <v>14</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2996,16 +2977,16 @@
         <v>45305</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="31">
         <v>15</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3013,16 +2994,16 @@
         <v>45316</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="31">
         <v>12</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3030,16 +3011,16 @@
         <v>45296</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D82" s="31">
         <v>9</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3047,16 +3028,16 @@
         <v>45297</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D83" s="31">
         <v>14</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3064,16 +3045,16 @@
         <v>45311</v>
       </c>
       <c r="B84" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="D84" s="31">
         <v>14</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -3081,16 +3062,16 @@
         <v>45309</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D85" s="31">
         <v>8</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3098,16 +3079,16 @@
         <v>45292</v>
       </c>
       <c r="B86" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="D86" s="31">
         <v>3</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3115,16 +3096,16 @@
         <v>45304</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D87" s="31">
         <v>6</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -3132,16 +3113,16 @@
         <v>45310</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D88" s="31">
         <v>15</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -3149,16 +3130,16 @@
         <v>45302</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D89" s="31">
         <v>13</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3166,16 +3147,16 @@
         <v>45299</v>
       </c>
       <c r="B90" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="D90" s="31">
         <v>6</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3183,16 +3164,16 @@
         <v>45298</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D91" s="31">
         <v>5</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3200,16 +3181,16 @@
         <v>45298</v>
       </c>
       <c r="B92" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D92" s="31">
         <v>8</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3217,16 +3198,16 @@
         <v>45297</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D93" s="31">
         <v>5</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3234,16 +3215,16 @@
         <v>45313</v>
       </c>
       <c r="B94" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D94" s="31">
         <v>1</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3251,16 +3232,16 @@
         <v>45308</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="31">
         <v>1</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3268,16 +3249,16 @@
         <v>45316</v>
       </c>
       <c r="B96" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="D96" s="31">
         <v>10</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3285,16 +3266,16 @@
         <v>45295</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D97" s="31">
         <v>9</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3302,16 +3283,16 @@
         <v>45302</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D98" s="31">
         <v>5</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3319,16 +3300,16 @@
         <v>45295</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D99" s="31">
         <v>2</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3336,16 +3317,16 @@
         <v>45305</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D100" s="31">
         <v>1</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3353,16 +3334,16 @@
         <v>45318</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D101" s="31">
         <v>14</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3370,16 +3351,16 @@
         <v>45293</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D102" s="31">
         <v>4</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3387,16 +3368,16 @@
         <v>45319</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D103" s="31">
         <v>5</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3404,16 +3385,16 @@
         <v>45314</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D104" s="31">
         <v>1</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3421,16 +3402,16 @@
         <v>45321</v>
       </c>
       <c r="B105" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="D105" s="31">
         <v>6</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3438,16 +3419,16 @@
         <v>45294</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D106" s="31">
         <v>7</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3455,16 +3436,16 @@
         <v>45317</v>
       </c>
       <c r="B107" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="D107" s="31">
         <v>3</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3472,16 +3453,16 @@
         <v>45293</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D108" s="31">
         <v>6</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -3489,16 +3470,16 @@
         <v>45301</v>
       </c>
       <c r="B109" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="D109" s="31">
         <v>15</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3506,16 +3487,16 @@
         <v>45314</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D110" s="31">
         <v>14</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3523,16 +3504,16 @@
         <v>45318</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D111" s="31">
         <v>14</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3540,16 +3521,16 @@
         <v>45318</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D112" s="31">
         <v>14</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3557,16 +3538,16 @@
         <v>45292</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D113" s="31">
         <v>11</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3574,16 +3555,16 @@
         <v>45307</v>
       </c>
       <c r="B114" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="C114" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="D114" s="31">
         <v>10</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3591,16 +3572,16 @@
         <v>45296</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D115" s="31">
         <v>7</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3608,16 +3589,16 @@
         <v>45309</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D116" s="31">
         <v>7</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3625,16 +3606,16 @@
         <v>45301</v>
       </c>
       <c r="B117" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D117" s="31">
         <v>12</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3642,16 +3623,16 @@
         <v>45306</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D118" s="31">
         <v>4</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3659,16 +3640,16 @@
         <v>45313</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D119" s="31">
         <v>13</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3676,16 +3657,16 @@
         <v>45315</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D120" s="31">
         <v>8</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3693,16 +3674,16 @@
         <v>45316</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D121" s="31">
         <v>6</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3710,16 +3691,16 @@
         <v>45319</v>
       </c>
       <c r="B122" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D122" s="31">
         <v>11</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3727,16 +3708,16 @@
         <v>45318</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D123" s="31">
         <v>3</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3744,16 +3725,16 @@
         <v>45303</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D124" s="31">
         <v>10</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3761,16 +3742,16 @@
         <v>45309</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D125" s="31">
         <v>9</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3778,16 +3759,16 @@
         <v>45312</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D126" s="31">
         <v>2</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3795,16 +3776,16 @@
         <v>45300</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D127" s="31">
         <v>15</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3812,16 +3793,16 @@
         <v>45317</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D128" s="31">
         <v>11</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3829,16 +3810,16 @@
         <v>45321</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D129" s="31">
         <v>12</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3846,16 +3827,16 @@
         <v>45321</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D130" s="31">
         <v>14</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3863,16 +3844,16 @@
         <v>45314</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D131" s="31">
         <v>2</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3880,16 +3861,16 @@
         <v>45317</v>
       </c>
       <c r="B132" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C132" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="C132" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="D132" s="31">
         <v>12</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3897,16 +3878,16 @@
         <v>45300</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D133" s="31">
         <v>9</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3914,16 +3895,16 @@
         <v>45310</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D134" s="31">
         <v>1</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3931,16 +3912,16 @@
         <v>45311</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D135" s="31">
         <v>1</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3948,16 +3929,16 @@
         <v>45305</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D136" s="31">
         <v>13</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3965,16 +3946,16 @@
         <v>45307</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D137" s="31">
         <v>15</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3982,16 +3963,16 @@
         <v>45297</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D138" s="31">
         <v>10</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3999,16 +3980,16 @@
         <v>45304</v>
       </c>
       <c r="B139" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="C139" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="D139" s="31">
         <v>9</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -4016,16 +3997,16 @@
         <v>45296</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D140" s="31">
         <v>1</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -4033,16 +4014,16 @@
         <v>45303</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D141" s="31">
         <v>15</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -4050,16 +4031,16 @@
         <v>45314</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D142" s="31">
         <v>2</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -4067,16 +4048,16 @@
         <v>45311</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D143" s="31">
         <v>12</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -4084,16 +4065,16 @@
         <v>45293</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D144" s="31">
         <v>13</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -4101,16 +4082,16 @@
         <v>45319</v>
       </c>
       <c r="B145" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="C145" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D145" s="31">
         <v>10</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -4118,16 +4099,16 @@
         <v>45318</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D146" s="31">
         <v>12</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -4135,16 +4116,16 @@
         <v>45319</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D147" s="31">
         <v>8</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -4152,16 +4133,16 @@
         <v>45307</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D148" s="31">
         <v>6</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
